--- a/Swag-labs-bug-report.xlsx
+++ b/Swag-labs-bug-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XERO\XERO-automation-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E36C7B-0E8C-44E9-96E1-93ED6EDB0198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7B17DF-8D58-4FC3-B52D-4E6D35CB6334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-3410" windowWidth="38620" windowHeight="21220" tabRatio="171" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>TS_SWAG_Purchase_002</t>
-  </si>
-  <si>
-    <t>Unable to type "Last Name" into checkout information</t>
   </si>
   <si>
     <t>P1</t>
@@ -516,6 +513,10 @@
       </rPr>
       <t>.</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unable to type text into "Last Name" field from the checkout page</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -960,7 +961,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1203,10 +1204,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -1256,7 +1257,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>21</v>
@@ -1265,13 +1266,13 @@
         <v>22</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>23</v>
@@ -1309,14 +1310,14 @@
         <v>22</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>27</v>
@@ -1350,29 +1351,29 @@
         <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>

--- a/Swag-labs-bug-report.xlsx
+++ b/Swag-labs-bug-report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XERO\XERO-automation-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7B17DF-8D58-4FC3-B52D-4E6D35CB6334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F464C9E1-8525-4B9B-A528-09B29B9382A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-3410" windowWidth="38620" windowHeight="21220" tabRatio="171" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="171" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUG Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Project Name</t>
   </si>
@@ -519,6 +519,95 @@
     <t>Unable to type text into "Last Name" field from the checkout page</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>TS_SWAG_Product_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Various bugs on product detail page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. Login to the products page by entering valid username and password.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click any product image to enter detail page</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Mismatch image
+2. Mismatch price
+3. Mismatch product name
+4. Mismatch cart added status
+5. Mismatch product desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Each product will have different mismatch issue on those places.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Correct image
+2. Correct price
+3. Correct product name
+4. Correct cart added status
+5. Correct product desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_SWAG_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_SWAG_Other_001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. Login to the products page by entering valid username and password.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click the hamberger menu on the top left side.
+3. Click the "ABOUT".</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Redirect to 404</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamberger Menu - About is redirecting to 404 page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Redirect to SauceLabs about page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verify the hamberger menu functionality of Swag Labs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -667,7 +756,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9444153" y="1329782"/>
+          <a:off x="9414726" y="1480014"/>
           <a:ext cx="952500" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -682,7 +771,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>27569</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>161150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1174286" cy="356762"/>
@@ -705,7 +794,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9354325" y="1911272"/>
+          <a:off x="9324898" y="2335638"/>
           <a:ext cx="1174286" cy="356762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -720,7 +809,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3143714</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>257098</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1220749" cy="718866"/>
@@ -743,7 +832,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9307860" y="2725854"/>
+          <a:off x="9276885" y="3147122"/>
           <a:ext cx="1220749" cy="718866"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -754,6 +843,94 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>46464</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>178808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1138354</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>694489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7C6169-6FDE-2F97-097B-F2177724A125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9343793" y="1916540"/>
+          <a:ext cx="1091890" cy="515681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33965</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>97572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1117707</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>476372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE5C426-7CC6-BA85-F9F8-3472FD6FDF4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9331294" y="4771792"/>
+          <a:ext cx="1083742" cy="378800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -958,10 +1135,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1297,36 +1474,35 @@
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
     </row>
-    <row r="10" spans="1:27" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
+      <c r="D10" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
-      <c r="G10" s="7"/>
       <c r="H10" s="9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>27</v>
+      <c r="J10" s="7" t="s">
+        <v>23</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>28</v>
+      <c r="L10" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -1344,36 +1520,36 @@
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11" spans="1:27" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1391,19 +1567,37 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
     </row>
-    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="H12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1420,18 +1614,38 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
     </row>
-    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+    <row r="13" spans="1:27" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1508,33 +1722,33 @@
       <c r="AA15" s="7"/>
     </row>
     <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
     </row>
     <row r="17" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -30072,6 +30286,35 @@
       <c r="Z1000" s="3"/>
       <c r="AA1000" s="3"/>
     </row>
+    <row r="1001" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1001" s="3"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="3"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+      <c r="V1001" s="3"/>
+      <c r="W1001" s="3"/>
+      <c r="X1001" s="3"/>
+      <c r="Y1001" s="3"/>
+      <c r="Z1001" s="3"/>
+      <c r="AA1001" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Swag-labs-bug-report.xlsx
+++ b/Swag-labs-bug-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XERO\XERO-automation-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F464C9E1-8525-4B9B-A528-09B29B9382A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADB7A70-3471-462A-A8E3-F1C2B0B863B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="171" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,9 +1137,7 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Swag-labs-bug-report.xlsx
+++ b/Swag-labs-bug-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XERO\XERO-automation-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADB7A70-3471-462A-A8E3-F1C2B0B863B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C77368B-A078-4DD2-BBB8-433A092D4269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="171" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,123 +399,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1. Login to the products page by entering valid username and password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Add "Sauce Labs Backpack" into the cart by clicking "ADD TO CART" button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Click the shopping cart icon on the right corner. 
-4. Click the "CHECKOUT" button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-5. Type "Kane" into the "First Name" field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6. Type "Zhang" into the "Second Name" field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-7. Click "CONTINUE" button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Unable to type text into "Last Name" field from the checkout page</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -606,6 +489,113 @@
   </si>
   <si>
     <t>Verify the hamberger menu functionality of Swag Labs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. Login to the products page by entering valid username and password.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Add "Sauce Labs Backpack" into the cart by clicking "ADD TO CART" button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Click the shopping cart icon on the right corner. 
+4. Click the "CHECKOUT" button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Type "Kane" into the "First Name" field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6. Type "Zhang" into the "Last Name" field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7. Click "CONTINUE" button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1137,7 +1127,9 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1476,22 +1468,22 @@
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>23</v>
@@ -1500,7 +1492,7 @@
         <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -1572,13 +1564,13 @@
         <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9" t="s">
@@ -1614,32 +1606,32 @@
     </row>
     <row r="13" spans="1:27" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>24</v>
